--- a/Symphony/2021/OCTOBER/Others/Revise _Target _RAJ.xlsx
+++ b/Symphony/2021/OCTOBER/Others/Revise _Target _RAJ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\OCTOBER\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Primary" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6198,7 +6198,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6692,12 +6692,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:AM27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="AH5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7686,122 +7686,122 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:39" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="28">
         <v>9548998.0069047622</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="28">
         <v>4807</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="28">
         <v>357</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="28">
         <v>357</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="28">
         <v>209</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="28">
         <v>569</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="28">
         <v>203</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="28">
         <v>227</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="28">
         <v>137</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="28">
         <v>137</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="28">
         <v>137</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="28">
         <v>137</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="28">
         <v>137</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="28">
         <v>235</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="28">
         <v>203</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="28">
         <v>137</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="28">
         <v>228</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="28">
         <v>195</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="28">
         <v>163</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="28">
         <v>126</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="28">
         <v>109</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="28">
         <v>51</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="28">
         <v>124</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="28">
         <v>32</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="28">
         <v>54</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="28">
         <v>92</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="28">
         <v>22</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11" s="28">
         <v>84</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG11" s="28">
         <v>51</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH11" s="28">
         <v>97</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11" s="28">
         <v>38</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ11" s="28">
         <v>36</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK11" s="28">
         <v>38</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL11" s="28">
         <v>47</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="28">
         <v>38</v>
       </c>
     </row>
@@ -10870,7 +10870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
